--- a/Errores Malla/Bitacora Errores.xlsx
+++ b/Errores Malla/Bitacora Errores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arturo\Documents\trendit\Errores Malla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4A1592B4-9E75-41AE-8307-AF08498FBA03}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B3BC62B5-D960-4B78-94BC-608A05C726C1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{5AADD966-6B43-4718-A4B2-22EC3F2EF5B8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>JOB</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>MENSAJE DE ERROR</t>
-  </si>
-  <si>
-    <t>Error: Error while compiling statement: FAILED: RuntimeException Cannot create staging directory 'hdfs://nameservice1/user/hive/warehouse/bddlalm.db/alm_prima_pagada_poliza_asegurado_cobertura/anio_mes_partition=201912/cve_sistema_partition=INFO/.hive-staging_hive_2019-12-04_08-11-36_525_2545348834436896686-285948': Permission denied: user=yarn, access=WRITE, inode="/user/hive/warehouse/bddlalm.db/alm_prima_pagada_poliza_asegurado_cobertura/anio_mes_partition=201912":impala:hive:drwxr-xr-x</t>
   </si>
   <si>
     <t>PROOSGMM_CNM_SOLICITUD</t>
@@ -119,6 +116,41 @@
       </rPr>
       <t xml:space="preserve">
 Falló por tema de permisos en un directorio por cambio de mes</t>
+    </r>
+  </si>
+  <si>
+    <t>WORKFLOW</t>
+  </si>
+  <si>
+    <t>WKF_RUN_PRIMA_PAGADA_ASEGURADO_COBERTURA</t>
+  </si>
+  <si>
+    <t>WKF_GMM_SOLICITUD</t>
+  </si>
+  <si>
+    <r>
+      <t>Error: Error while compiling statement: FAILED: RuntimeException Cannot create staging directory 'hdfs://nameservice1/user/hive/warehouse/bddlalm.db/alm_prima_pagada_poliza_asegurado_cobertura/anio_mes_partition=201912/cve_sistema_partition=INFO/.hive-staging_hive_2019-12-04_08-11-36_525_2545348834436896686-285948': Permission denied: user=yarn, access=WRITE, inode="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/user/hive/warehouse/bddlalm.db/alm_prima_pagada_poliza_asegurado_cobertura/anio_mes_partition=201912</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>":impala:hive:drwxr-xr-x</t>
     </r>
   </si>
 </sst>
@@ -551,24 +583,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA6CACA-4780-44ED-AF65-CF6742076CD0}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="37" customWidth="1"/>
+    <col min="4" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -580,35 +612,41 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="243" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="243" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
@@ -619,100 +657,114 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
